--- a/Recursos/Nomenclaturas.xlsx
+++ b/Recursos/Nomenclaturas.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub Desarrollo 2\Documentacion\Entregable 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub Desarrollo 2\Documentacion\Recursos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="6465" windowHeight="3420" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6465" windowHeight="3420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1462,7 +1462,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Recursos/Nomenclaturas.xlsx
+++ b/Recursos/Nomenclaturas.xlsx
@@ -1462,7 +1462,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Recursos/Nomenclaturas.xlsx
+++ b/Recursos/Nomenclaturas.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub Desarrollo 2\Documentacion\Recursos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="6465" windowHeight="3420" activeTab="1"/>
   </bookViews>
@@ -431,7 +436,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -886,7 +891,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -902,10 +907,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.42578125" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.375" customWidth="1"/>
+    <col min="2" max="2" width="23.375" customWidth="1"/>
+    <col min="3" max="3" width="32.375" customWidth="1"/>
+    <col min="4" max="4" width="14.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1351,17 +1356,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.140625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="39.5703125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="48.125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="39.625" style="8" customWidth="1"/>
     <col min="3" max="3" width="35" style="8" customWidth="1"/>
     <col min="4" max="16384" width="11" style="8"/>
   </cols>
@@ -1580,270 +1585,255 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="17"/>
+      <c r="A22" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="17"/>
+      <c r="A23" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="17"/>
+      <c r="A24" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>127</v>
+        <v>87</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>107</v>
+      <c r="A40" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>110</v>
+      <c r="A41" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="B42" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>116</v>
+      <c r="A42" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>2</v>
+      <c r="A46" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="B48" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" s="20" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B49" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C49" s="20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B50" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C50" s="20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="B51" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C51" s="20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C52" s="20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="B53" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C53" s="20" t="s">
         <v>59</v>
       </c>
     </row>
